--- a/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -701,7 +702,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -736,7 +737,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -771,7 +772,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -806,7 +807,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -841,7 +842,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -915,7 +916,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -974,7 +975,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1009,7 +1010,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1044,7 +1045,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1079,7 +1080,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1114,7 +1115,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1149,7 +1150,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1184,7 +1185,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1219,7 +1220,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1254,7 +1255,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1289,7 +1290,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1328,7 +1329,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1387,7 +1388,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1422,7 +1423,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1457,7 +1458,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1492,7 +1493,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1527,7 +1528,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1562,7 +1563,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1597,7 +1598,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1632,7 +1633,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1667,7 +1668,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1702,7 +1703,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1741,7 +1742,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1800,7 +1801,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1835,7 +1836,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1870,7 +1871,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1905,7 +1906,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1940,7 +1941,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1975,7 +1976,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2010,7 +2011,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2045,7 +2046,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2080,7 +2081,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2115,7 +2116,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2154,7 +2155,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2213,7 +2214,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2248,7 +2249,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2283,7 +2284,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2318,7 +2319,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2353,7 +2354,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2388,7 +2389,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2423,7 +2424,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2458,7 +2459,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2493,7 +2494,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2528,7 +2529,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2567,7 +2568,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2626,7 +2627,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2661,7 +2662,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2696,7 +2697,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2731,7 +2732,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2766,7 +2767,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2801,7 +2802,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2836,7 +2837,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2871,7 +2872,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2906,7 +2907,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2941,7 +2942,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2980,7 +2981,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3039,7 +3040,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3074,7 +3075,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3109,7 +3110,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3144,7 +3145,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3179,7 +3180,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3214,7 +3215,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3249,7 +3250,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3284,7 +3285,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3319,7 +3320,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3354,7 +3355,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3393,7 +3394,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3452,7 +3453,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3487,7 +3488,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3522,7 +3523,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3557,7 +3558,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3592,7 +3593,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3627,7 +3628,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3662,7 +3663,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3697,7 +3698,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3732,7 +3733,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3767,7 +3768,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3806,7 +3807,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3865,7 +3866,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3900,7 +3901,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3935,7 +3936,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3970,7 +3971,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4005,7 +4006,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4040,7 +4041,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4075,7 +4076,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4110,7 +4111,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4145,7 +4146,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4180,7 +4181,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4219,7 +4220,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4278,7 +4279,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4313,7 +4314,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4348,7 +4349,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4383,7 +4384,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4418,7 +4419,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4453,7 +4454,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4488,7 +4489,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4523,7 +4524,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4558,7 +4559,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4593,7 +4594,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4632,7 +4633,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4691,7 +4692,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4726,7 +4727,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4761,7 +4762,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4796,7 +4797,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4831,7 +4832,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4866,7 +4867,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4901,7 +4902,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4936,7 +4937,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4971,7 +4972,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5006,7 +5007,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5045,7 +5046,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5104,7 +5105,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5139,7 +5140,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5174,7 +5175,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5209,7 +5210,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5244,7 +5245,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5279,7 +5280,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5314,7 +5315,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5349,7 +5350,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5384,7 +5385,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5419,7 +5420,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -5458,7 +5459,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -5517,7 +5518,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5552,7 +5553,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5587,7 +5588,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5622,7 +5623,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5657,7 +5658,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5692,7 +5693,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5727,7 +5728,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5762,7 +5763,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5797,7 +5798,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5832,7 +5833,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -5871,7 +5872,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5930,7 +5931,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5965,7 +5966,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6000,7 +6001,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6035,7 +6036,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6070,7 +6071,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6105,7 +6106,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6140,7 +6141,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6175,7 +6176,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6210,7 +6211,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6245,7 +6246,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6284,7 +6285,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -6343,7 +6344,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6378,7 +6379,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6413,7 +6414,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6448,7 +6449,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6483,7 +6484,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6518,7 +6519,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6553,7 +6554,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6588,7 +6589,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6623,7 +6624,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6658,7 +6659,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -6697,7 +6698,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6756,7 +6757,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6791,7 +6792,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6826,7 +6827,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6861,7 +6862,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6896,7 +6897,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6931,7 +6932,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6966,7 +6967,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7001,7 +7002,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7036,7 +7037,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7071,7 +7072,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -7110,7 +7111,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -7169,7 +7170,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7204,7 +7205,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7239,7 +7240,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7274,7 +7275,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7309,7 +7310,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7344,7 +7345,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7379,7 +7380,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7414,7 +7415,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7449,7 +7450,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7484,7 +7485,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -7523,7 +7524,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -7582,7 +7583,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7621,7 +7622,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7656,7 +7657,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7691,7 +7692,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7726,7 +7727,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7761,7 +7762,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7796,7 +7797,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7831,7 +7832,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7866,7 +7867,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7901,7 +7902,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7936,7 +7937,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -7975,7 +7976,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -8034,7 +8035,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8073,7 +8074,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8108,7 +8109,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8143,7 +8144,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8178,7 +8179,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8213,7 +8214,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8248,7 +8249,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8283,7 +8284,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8318,7 +8319,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8353,7 +8354,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8388,7 +8389,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C211" t="inlineStr">
@@ -8427,7 +8428,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C212" t="inlineStr">
@@ -8486,7 +8487,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8525,7 +8526,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8560,7 +8561,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8595,7 +8596,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8630,7 +8631,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8665,7 +8666,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8700,7 +8701,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8735,7 +8736,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8770,7 +8771,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8805,7 +8806,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8840,7 +8841,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C223" t="inlineStr">
@@ -8879,7 +8880,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8938,7 +8939,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8977,7 +8978,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9012,7 +9013,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9047,7 +9048,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9082,7 +9083,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9117,7 +9118,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9152,7 +9153,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9187,7 +9188,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9222,7 +9223,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9257,7 +9258,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9292,7 +9293,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9331,7 +9332,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C236" t="inlineStr">
@@ -9390,7 +9391,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9429,7 +9430,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9464,7 +9465,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9499,7 +9500,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9534,7 +9535,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9569,7 +9570,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9604,7 +9605,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9639,7 +9640,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9674,7 +9675,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9709,7 +9710,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9744,7 +9745,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C247" t="inlineStr">
@@ -9783,7 +9784,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -9842,7 +9843,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9881,7 +9882,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9916,7 +9917,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9951,7 +9952,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9986,7 +9987,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10021,7 +10022,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10056,7 +10057,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10091,7 +10092,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10126,7 +10127,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10161,7 +10162,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10196,7 +10197,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -10235,7 +10236,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C260" t="inlineStr">
@@ -10294,7 +10295,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10333,7 +10334,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10368,7 +10369,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10403,7 +10404,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10438,7 +10439,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10473,7 +10474,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10508,7 +10509,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10543,7 +10544,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10578,7 +10579,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10613,7 +10614,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10648,7 +10649,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -10687,7 +10688,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -10746,7 +10747,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10785,7 +10786,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10820,7 +10821,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10855,7 +10856,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10890,7 +10891,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10925,7 +10926,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10960,7 +10961,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10995,7 +10996,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11030,7 +11031,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11065,7 +11066,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11100,7 +11101,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C283" t="inlineStr">
@@ -11139,7 +11140,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C284" t="inlineStr">
@@ -11198,7 +11199,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11237,7 +11238,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11272,7 +11273,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11307,7 +11308,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11342,7 +11343,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11377,7 +11378,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11412,7 +11413,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11447,7 +11448,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11482,7 +11483,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11517,7 +11518,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11552,7 +11553,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C295" t="inlineStr">
@@ -11591,7 +11592,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C296" t="inlineStr">
@@ -11650,7 +11651,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11689,7 +11690,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11724,7 +11725,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11759,7 +11760,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11794,7 +11795,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11829,7 +11830,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11864,7 +11865,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11899,7 +11900,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11934,7 +11935,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11969,7 +11970,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12004,7 +12005,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C307" t="inlineStr">
@@ -12043,7 +12044,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C308" t="inlineStr">
@@ -12102,7 +12103,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12141,7 +12142,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12176,7 +12177,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12211,7 +12212,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12246,7 +12247,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12281,7 +12282,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12316,7 +12317,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12351,7 +12352,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12386,7 +12387,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12421,7 +12422,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12456,7 +12457,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C319" t="inlineStr">
@@ -12495,7 +12496,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B320" s="3" t="n">
+      <c r="B320" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C320" t="inlineStr">
@@ -12554,7 +12555,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B321" s="3" t="n">
+      <c r="B321" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -12593,7 +12594,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B322" s="3" t="n">
+      <c r="B322" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12628,7 +12629,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B323" s="3" t="n">
+      <c r="B323" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -12663,7 +12664,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B324" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -12698,7 +12699,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B325" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -12733,7 +12734,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B326" s="3" t="n">
+      <c r="B326" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12768,7 +12769,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B327" s="3" t="n">
+      <c r="B327" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12803,7 +12804,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B328" s="3" t="n">
+      <c r="B328" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12838,7 +12839,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B329" s="3" t="n">
+      <c r="B329" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12873,7 +12874,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B330" s="3" t="n">
+      <c r="B330" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12908,7 +12909,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B331" s="3" t="n">
+      <c r="B331" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C331" t="inlineStr">
@@ -12947,7 +12948,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B332" s="3" t="n">
+      <c r="B332" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C332" t="inlineStr">
@@ -13006,7 +13007,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B333" s="3" t="n">
+      <c r="B333" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -13045,7 +13046,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B334" s="3" t="n">
+      <c r="B334" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13080,7 +13081,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B335" s="3" t="n">
+      <c r="B335" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13115,7 +13116,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B336" s="3" t="n">
+      <c r="B336" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -13150,7 +13151,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B337" s="3" t="n">
+      <c r="B337" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -13185,7 +13186,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B338" s="3" t="n">
+      <c r="B338" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13220,7 +13221,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B339" s="3" t="n">
+      <c r="B339" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13255,7 +13256,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B340" s="3" t="n">
+      <c r="B340" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13290,7 +13291,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B341" s="3" t="n">
+      <c r="B341" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -13325,7 +13326,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B342" s="3" t="n">
+      <c r="B342" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -13360,7 +13361,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B343" s="3" t="n">
+      <c r="B343" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C343" t="inlineStr">
@@ -13399,7 +13400,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B344" s="3" t="n">
+      <c r="B344" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C344" t="inlineStr">
@@ -13458,7 +13459,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B345" s="3" t="n">
+      <c r="B345" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13497,7 +13498,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B346" s="3" t="n">
+      <c r="B346" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13532,7 +13533,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B347" s="3" t="n">
+      <c r="B347" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13567,7 +13568,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B348" s="3" t="n">
+      <c r="B348" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13602,7 +13603,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B349" s="3" t="n">
+      <c r="B349" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13637,7 +13638,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B350" s="3" t="n">
+      <c r="B350" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13672,7 +13673,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B351" s="3" t="n">
+      <c r="B351" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13707,7 +13708,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B352" s="3" t="n">
+      <c r="B352" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -13742,7 +13743,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B353" s="3" t="n">
+      <c r="B353" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -13777,7 +13778,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B354" s="3" t="n">
+      <c r="B354" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13812,7 +13813,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B355" s="3" t="n">
+      <c r="B355" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C355" t="inlineStr">
@@ -13851,7 +13852,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B356" s="3" t="n">
+      <c r="B356" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C356" t="inlineStr">
@@ -13910,7 +13911,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B357" s="3" t="n">
+      <c r="B357" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13949,7 +13950,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B358" s="3" t="n">
+      <c r="B358" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -13984,7 +13985,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B359" s="3" t="n">
+      <c r="B359" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -14019,7 +14020,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B360" s="3" t="n">
+      <c r="B360" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -14054,7 +14055,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B361" s="3" t="n">
+      <c r="B361" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -14089,7 +14090,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B362" s="3" t="n">
+      <c r="B362" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14124,7 +14125,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B363" s="3" t="n">
+      <c r="B363" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14159,7 +14160,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B364" s="3" t="n">
+      <c r="B364" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14194,7 +14195,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B365" s="3" t="n">
+      <c r="B365" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14229,7 +14230,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B366" s="3" t="n">
+      <c r="B366" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14264,7 +14265,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B367" s="3" t="n">
+      <c r="B367" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C367" t="inlineStr">
@@ -14303,7 +14304,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B368" s="3" t="n">
+      <c r="B368" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C368" t="inlineStr">
@@ -14362,7 +14363,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B369" s="3" t="n">
+      <c r="B369" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -14401,7 +14402,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B370" s="3" t="n">
+      <c r="B370" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14436,7 +14437,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B371" s="3" t="n">
+      <c r="B371" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14471,7 +14472,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B372" s="3" t="n">
+      <c r="B372" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14506,7 +14507,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B373" s="3" t="n">
+      <c r="B373" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14541,7 +14542,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B374" s="3" t="n">
+      <c r="B374" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14576,7 +14577,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B375" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14611,7 +14612,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B376" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14646,7 +14647,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B377" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -14681,7 +14682,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B378" s="3" t="n">
+      <c r="B378" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -14716,7 +14717,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B379" s="3" t="n">
+      <c r="B379" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C379" t="inlineStr">
@@ -14755,7 +14756,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B380" s="3" t="n">
+      <c r="B380" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C380" t="inlineStr">
@@ -14814,7 +14815,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B381" s="3" t="n">
+      <c r="B381" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14853,7 +14854,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B382" s="3" t="n">
+      <c r="B382" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14888,7 +14889,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B383" s="3" t="n">
+      <c r="B383" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14923,7 +14924,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B384" s="3" t="n">
+      <c r="B384" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -14958,7 +14959,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B385" s="3" t="n">
+      <c r="B385" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -14993,7 +14994,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B386" s="3" t="n">
+      <c r="B386" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15028,7 +15029,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B387" s="3" t="n">
+      <c r="B387" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15063,7 +15064,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B388" s="3" t="n">
+      <c r="B388" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15098,7 +15099,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B389" s="3" t="n">
+      <c r="B389" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15133,7 +15134,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B390" s="3" t="n">
+      <c r="B390" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15168,7 +15169,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B391" s="3" t="n">
+      <c r="B391" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C391" t="inlineStr">
@@ -15207,7 +15208,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B392" s="3" t="n">
+      <c r="B392" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C392" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -562,7 +561,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -597,7 +596,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -632,7 +631,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -667,7 +666,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -702,7 +701,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -737,7 +736,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -772,7 +771,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -807,7 +806,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -842,7 +841,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -877,7 +876,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -916,7 +915,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -975,7 +974,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1010,7 +1009,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1045,7 +1044,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1080,7 +1079,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1115,7 +1114,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1150,7 +1149,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1185,7 +1184,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1220,7 +1219,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1255,7 +1254,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1290,7 +1289,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1329,7 +1328,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1388,7 +1387,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1423,7 +1422,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1458,7 +1457,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1493,7 +1492,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1528,7 +1527,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1563,7 +1562,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1598,7 +1597,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1633,7 +1632,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1668,7 +1667,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1703,7 +1702,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1742,7 +1741,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1801,7 +1800,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1836,7 +1835,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1871,7 +1870,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1906,7 +1905,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1941,7 +1940,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1976,7 +1975,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2011,7 +2010,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2046,7 +2045,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2081,7 +2080,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2116,7 +2115,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2155,7 +2154,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2214,7 +2213,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2249,7 +2248,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2284,7 +2283,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2319,7 +2318,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2354,7 +2353,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2389,7 +2388,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2424,7 +2423,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2459,7 +2458,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2494,7 +2493,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2529,7 +2528,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2568,7 +2567,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2627,7 +2626,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2662,7 +2661,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2697,7 +2696,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2732,7 +2731,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2767,7 +2766,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2802,7 +2801,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2837,7 +2836,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2872,7 +2871,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2907,7 +2906,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2942,7 +2941,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2981,7 +2980,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3040,7 +3039,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3075,7 +3074,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3110,7 +3109,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3145,7 +3144,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3180,7 +3179,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3215,7 +3214,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3250,7 +3249,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3285,7 +3284,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3320,7 +3319,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3355,7 +3354,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3394,7 +3393,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3453,7 +3452,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3488,7 +3487,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3523,7 +3522,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3558,7 +3557,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3593,7 +3592,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3628,7 +3627,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3663,7 +3662,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3698,7 +3697,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3733,7 +3732,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3768,7 +3767,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3807,7 +3806,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3866,7 +3865,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3901,7 +3900,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3936,7 +3935,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3971,7 +3970,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4006,7 +4005,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4041,7 +4040,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4076,7 +4075,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4111,7 +4110,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4146,7 +4145,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4181,7 +4180,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4220,7 +4219,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4279,7 +4278,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4314,7 +4313,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4349,7 +4348,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4384,7 +4383,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4419,7 +4418,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4454,7 +4453,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4489,7 +4488,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4524,7 +4523,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4559,7 +4558,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4594,7 +4593,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4633,7 +4632,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4692,7 +4691,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4727,7 +4726,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4762,7 +4761,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4797,7 +4796,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4832,7 +4831,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4867,7 +4866,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4902,7 +4901,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4937,7 +4936,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4972,7 +4971,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5007,7 +5006,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5046,7 +5045,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5105,7 +5104,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5140,7 +5139,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5175,7 +5174,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5210,7 +5209,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5245,7 +5244,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5280,7 +5279,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5315,7 +5314,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5350,7 +5349,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5385,7 +5384,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5420,7 +5419,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -5459,7 +5458,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -5518,7 +5517,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5553,7 +5552,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5588,7 +5587,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5623,7 +5622,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5658,7 +5657,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5693,7 +5692,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5728,7 +5727,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5763,7 +5762,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5798,7 +5797,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5833,7 +5832,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -5872,7 +5871,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5931,7 +5930,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5966,7 +5965,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6001,7 +6000,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6036,7 +6035,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6071,7 +6070,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6106,7 +6105,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6141,7 +6140,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6176,7 +6175,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6211,7 +6210,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6246,7 +6245,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6285,7 +6284,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -6344,7 +6343,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6379,7 +6378,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6414,7 +6413,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6449,7 +6448,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6484,7 +6483,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6519,7 +6518,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6554,7 +6553,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6589,7 +6588,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6624,7 +6623,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6659,7 +6658,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -6698,7 +6697,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6757,7 +6756,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6792,7 +6791,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6827,7 +6826,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6862,7 +6861,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6897,7 +6896,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6932,7 +6931,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6967,7 +6966,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7002,7 +7001,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7037,7 +7036,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7072,7 +7071,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -7111,7 +7110,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -7170,7 +7169,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7205,7 +7204,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7240,7 +7239,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7275,7 +7274,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7310,7 +7309,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7345,7 +7344,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7380,7 +7379,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7415,7 +7414,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7450,7 +7449,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7485,7 +7484,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -7524,7 +7523,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -7583,7 +7582,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7622,7 +7621,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7657,7 +7656,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7692,7 +7691,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7727,7 +7726,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7762,7 +7761,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7797,7 +7796,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7832,7 +7831,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7867,7 +7866,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7902,7 +7901,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7937,7 +7936,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -7976,7 +7975,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -8035,7 +8034,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8074,7 +8073,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8109,7 +8108,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8144,7 +8143,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8179,7 +8178,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8214,7 +8213,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8249,7 +8248,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8284,7 +8283,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8319,7 +8318,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8354,7 +8353,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8389,7 +8388,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C211" t="inlineStr">
@@ -8428,7 +8427,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C212" t="inlineStr">
@@ -8487,7 +8486,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8526,7 +8525,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8561,7 +8560,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8596,7 +8595,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8631,7 +8630,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8666,7 +8665,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8701,7 +8700,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8736,7 +8735,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8771,7 +8770,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8806,7 +8805,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8841,7 +8840,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C223" t="inlineStr">
@@ -8880,7 +8879,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8939,7 +8938,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8978,7 +8977,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9013,7 +9012,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9048,7 +9047,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9083,7 +9082,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9118,7 +9117,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9153,7 +9152,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9188,7 +9187,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9223,7 +9222,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9258,7 +9257,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9293,7 +9292,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9332,7 +9331,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C236" t="inlineStr">
@@ -9391,7 +9390,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9430,7 +9429,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9465,7 +9464,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9500,7 +9499,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9535,7 +9534,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9570,7 +9569,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9605,7 +9604,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9640,7 +9639,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9675,7 +9674,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9710,7 +9709,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9745,7 +9744,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C247" t="inlineStr">
@@ -9784,7 +9783,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -9843,7 +9842,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9882,7 +9881,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9917,7 +9916,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9952,7 +9951,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B252" s="4" t="n">
+      <c r="B252" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9987,7 +9986,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B253" s="4" t="n">
+      <c r="B253" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10022,7 +10021,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B254" s="4" t="n">
+      <c r="B254" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10057,7 +10056,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B255" s="4" t="n">
+      <c r="B255" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10092,7 +10091,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B256" s="4" t="n">
+      <c r="B256" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10127,7 +10126,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B257" s="4" t="n">
+      <c r="B257" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10162,7 +10161,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B258" s="4" t="n">
+      <c r="B258" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10197,7 +10196,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B259" s="4" t="n">
+      <c r="B259" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -10236,7 +10235,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B260" s="4" t="n">
+      <c r="B260" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C260" t="inlineStr">
@@ -10295,7 +10294,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B261" s="4" t="n">
+      <c r="B261" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10334,7 +10333,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B262" s="4" t="n">
+      <c r="B262" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10369,7 +10368,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B263" s="4" t="n">
+      <c r="B263" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10404,7 +10403,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B264" s="4" t="n">
+      <c r="B264" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10439,7 +10438,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B265" s="4" t="n">
+      <c r="B265" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10474,7 +10473,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B266" s="4" t="n">
+      <c r="B266" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10509,7 +10508,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B267" s="4" t="n">
+      <c r="B267" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10544,7 +10543,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B268" s="4" t="n">
+      <c r="B268" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10579,7 +10578,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B269" s="4" t="n">
+      <c r="B269" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10614,7 +10613,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B270" s="4" t="n">
+      <c r="B270" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10649,7 +10648,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B271" s="4" t="n">
+      <c r="B271" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -10688,7 +10687,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B272" s="4" t="n">
+      <c r="B272" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -10747,7 +10746,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B273" s="4" t="n">
+      <c r="B273" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10786,7 +10785,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B274" s="4" t="n">
+      <c r="B274" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10821,7 +10820,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B275" s="4" t="n">
+      <c r="B275" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10856,7 +10855,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B276" s="4" t="n">
+      <c r="B276" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10891,7 +10890,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B277" s="4" t="n">
+      <c r="B277" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10926,7 +10925,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B278" s="4" t="n">
+      <c r="B278" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10961,7 +10960,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B279" s="4" t="n">
+      <c r="B279" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10996,7 +10995,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B280" s="4" t="n">
+      <c r="B280" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11031,7 +11030,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B281" s="4" t="n">
+      <c r="B281" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11066,7 +11065,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B282" s="4" t="n">
+      <c r="B282" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11101,7 +11100,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B283" s="4" t="n">
+      <c r="B283" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C283" t="inlineStr">
@@ -11140,7 +11139,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B284" s="4" t="n">
+      <c r="B284" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C284" t="inlineStr">
@@ -11199,7 +11198,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B285" s="4" t="n">
+      <c r="B285" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11238,7 +11237,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B286" s="4" t="n">
+      <c r="B286" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11273,7 +11272,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B287" s="4" t="n">
+      <c r="B287" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11308,7 +11307,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B288" s="4" t="n">
+      <c r="B288" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11343,7 +11342,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B289" s="4" t="n">
+      <c r="B289" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11378,7 +11377,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B290" s="4" t="n">
+      <c r="B290" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11413,7 +11412,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B291" s="4" t="n">
+      <c r="B291" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11448,7 +11447,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B292" s="4" t="n">
+      <c r="B292" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11483,7 +11482,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B293" s="4" t="n">
+      <c r="B293" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11518,7 +11517,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B294" s="4" t="n">
+      <c r="B294" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11553,7 +11552,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B295" s="4" t="n">
+      <c r="B295" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C295" t="inlineStr">
@@ -11592,7 +11591,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B296" s="4" t="n">
+      <c r="B296" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C296" t="inlineStr">
@@ -11651,7 +11650,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B297" s="4" t="n">
+      <c r="B297" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11690,7 +11689,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B298" s="4" t="n">
+      <c r="B298" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11725,7 +11724,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B299" s="4" t="n">
+      <c r="B299" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11760,7 +11759,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B300" s="4" t="n">
+      <c r="B300" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11795,7 +11794,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B301" s="4" t="n">
+      <c r="B301" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11830,7 +11829,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B302" s="4" t="n">
+      <c r="B302" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11865,7 +11864,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B303" s="4" t="n">
+      <c r="B303" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11900,7 +11899,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B304" s="4" t="n">
+      <c r="B304" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11935,7 +11934,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B305" s="4" t="n">
+      <c r="B305" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11970,7 +11969,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B306" s="4" t="n">
+      <c r="B306" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12005,7 +12004,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B307" s="4" t="n">
+      <c r="B307" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C307" t="inlineStr">
@@ -12044,7 +12043,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B308" s="4" t="n">
+      <c r="B308" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C308" t="inlineStr">
@@ -12103,7 +12102,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B309" s="4" t="n">
+      <c r="B309" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12142,7 +12141,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B310" s="4" t="n">
+      <c r="B310" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12177,7 +12176,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B311" s="4" t="n">
+      <c r="B311" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12212,7 +12211,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B312" s="4" t="n">
+      <c r="B312" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12247,7 +12246,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B313" s="4" t="n">
+      <c r="B313" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12282,7 +12281,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B314" s="4" t="n">
+      <c r="B314" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12317,7 +12316,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B315" s="4" t="n">
+      <c r="B315" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12352,7 +12351,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B316" s="4" t="n">
+      <c r="B316" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12387,7 +12386,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B317" s="4" t="n">
+      <c r="B317" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12422,7 +12421,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B318" s="4" t="n">
+      <c r="B318" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12457,7 +12456,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B319" s="4" t="n">
+      <c r="B319" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C319" t="inlineStr">
@@ -12496,7 +12495,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B320" s="4" t="n">
+      <c r="B320" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C320" t="inlineStr">
@@ -12555,7 +12554,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B321" s="4" t="n">
+      <c r="B321" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -12594,7 +12593,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B322" s="4" t="n">
+      <c r="B322" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12629,7 +12628,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B323" s="4" t="n">
+      <c r="B323" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -12664,7 +12663,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B324" s="4" t="n">
+      <c r="B324" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -12699,7 +12698,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B325" s="4" t="n">
+      <c r="B325" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -12734,7 +12733,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B326" s="4" t="n">
+      <c r="B326" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12769,7 +12768,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B327" s="4" t="n">
+      <c r="B327" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12804,7 +12803,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B328" s="4" t="n">
+      <c r="B328" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12839,7 +12838,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B329" s="4" t="n">
+      <c r="B329" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12874,7 +12873,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B330" s="4" t="n">
+      <c r="B330" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12909,7 +12908,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B331" s="4" t="n">
+      <c r="B331" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C331" t="inlineStr">
@@ -12948,7 +12947,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B332" s="4" t="n">
+      <c r="B332" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C332" t="inlineStr">
@@ -13007,7 +13006,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B333" s="4" t="n">
+      <c r="B333" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -13046,7 +13045,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B334" s="4" t="n">
+      <c r="B334" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13081,7 +13080,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B335" s="4" t="n">
+      <c r="B335" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13116,7 +13115,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B336" s="4" t="n">
+      <c r="B336" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -13151,7 +13150,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B337" s="4" t="n">
+      <c r="B337" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -13186,7 +13185,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B338" s="4" t="n">
+      <c r="B338" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13221,7 +13220,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B339" s="4" t="n">
+      <c r="B339" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13256,7 +13255,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B340" s="4" t="n">
+      <c r="B340" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13291,7 +13290,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B341" s="4" t="n">
+      <c r="B341" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -13326,7 +13325,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B342" s="4" t="n">
+      <c r="B342" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -13361,7 +13360,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B343" s="4" t="n">
+      <c r="B343" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C343" t="inlineStr">
@@ -13400,7 +13399,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B344" s="4" t="n">
+      <c r="B344" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C344" t="inlineStr">
@@ -13459,7 +13458,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B345" s="4" t="n">
+      <c r="B345" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13498,7 +13497,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B346" s="4" t="n">
+      <c r="B346" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13533,7 +13532,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B347" s="4" t="n">
+      <c r="B347" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13568,7 +13567,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B348" s="4" t="n">
+      <c r="B348" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13603,7 +13602,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B349" s="4" t="n">
+      <c r="B349" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13638,7 +13637,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B350" s="4" t="n">
+      <c r="B350" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13673,7 +13672,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B351" s="4" t="n">
+      <c r="B351" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13708,7 +13707,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B352" s="4" t="n">
+      <c r="B352" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -13743,7 +13742,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B353" s="4" t="n">
+      <c r="B353" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -13778,7 +13777,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B354" s="4" t="n">
+      <c r="B354" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13813,7 +13812,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B355" s="4" t="n">
+      <c r="B355" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C355" t="inlineStr">
@@ -13852,7 +13851,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B356" s="4" t="n">
+      <c r="B356" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C356" t="inlineStr">
@@ -13911,7 +13910,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B357" s="4" t="n">
+      <c r="B357" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13950,7 +13949,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B358" s="4" t="n">
+      <c r="B358" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -13985,7 +13984,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B359" s="4" t="n">
+      <c r="B359" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -14020,7 +14019,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B360" s="4" t="n">
+      <c r="B360" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -14055,7 +14054,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B361" s="4" t="n">
+      <c r="B361" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -14090,7 +14089,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B362" s="4" t="n">
+      <c r="B362" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14125,7 +14124,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B363" s="4" t="n">
+      <c r="B363" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14160,7 +14159,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B364" s="4" t="n">
+      <c r="B364" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14195,7 +14194,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B365" s="4" t="n">
+      <c r="B365" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14230,7 +14229,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B366" s="4" t="n">
+      <c r="B366" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14265,7 +14264,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B367" s="4" t="n">
+      <c r="B367" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C367" t="inlineStr">
@@ -14304,7 +14303,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B368" s="4" t="n">
+      <c r="B368" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C368" t="inlineStr">
@@ -14363,7 +14362,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B369" s="4" t="n">
+      <c r="B369" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -14402,7 +14401,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B370" s="4" t="n">
+      <c r="B370" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14437,7 +14436,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B371" s="4" t="n">
+      <c r="B371" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14472,7 +14471,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B372" s="4" t="n">
+      <c r="B372" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14507,7 +14506,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B373" s="4" t="n">
+      <c r="B373" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14542,7 +14541,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B374" s="4" t="n">
+      <c r="B374" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14577,7 +14576,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B375" s="4" t="n">
+      <c r="B375" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14612,7 +14611,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B376" s="4" t="n">
+      <c r="B376" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14647,7 +14646,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B377" s="4" t="n">
+      <c r="B377" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -14682,7 +14681,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B378" s="4" t="n">
+      <c r="B378" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -14717,7 +14716,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B379" s="4" t="n">
+      <c r="B379" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C379" t="inlineStr">
@@ -14756,7 +14755,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B380" s="4" t="n">
+      <c r="B380" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C380" t="inlineStr">
@@ -14815,7 +14814,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B381" s="4" t="n">
+      <c r="B381" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14854,7 +14853,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B382" s="4" t="n">
+      <c r="B382" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14889,7 +14888,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B383" s="4" t="n">
+      <c r="B383" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14924,7 +14923,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B384" s="4" t="n">
+      <c r="B384" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -14959,7 +14958,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B385" s="4" t="n">
+      <c r="B385" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -14994,7 +14993,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B386" s="4" t="n">
+      <c r="B386" s="3" t="n">
         <v>43321</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15029,7 +15028,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B387" s="4" t="n">
+      <c r="B387" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15064,7 +15063,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B388" s="4" t="n">
+      <c r="B388" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15099,7 +15098,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B389" s="4" t="n">
+      <c r="B389" s="3" t="n">
         <v>43411</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15134,7 +15133,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B390" s="4" t="n">
+      <c r="B390" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15169,7 +15168,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B391" s="4" t="n">
+      <c r="B391" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C391" t="inlineStr">
@@ -15208,7 +15207,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B392" s="4" t="n">
+      <c r="B392" s="3" t="n">
         <v>43474</v>
       </c>
       <c r="C392" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-02.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -701,7 +702,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -736,7 +737,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -771,7 +772,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -806,7 +807,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -841,7 +842,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -876,7 +877,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -915,7 +916,7 @@
           <t>FAR SAC W18-02FungicideNoneCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -974,7 +975,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1009,7 +1010,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1044,7 +1045,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1079,7 +1080,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1114,7 +1115,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1149,7 +1150,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1184,7 +1185,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1219,7 +1220,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1254,7 +1255,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1289,7 +1290,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1328,7 +1329,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRevenue</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1387,7 +1388,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1422,7 +1423,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1457,7 +1458,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1492,7 +1493,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1527,7 +1528,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1562,7 +1563,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1597,7 +1598,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1632,7 +1633,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1667,7 +1668,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1702,7 +1703,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1741,7 +1742,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBeaufort</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C34" t="inlineStr">
@@ -1800,7 +1801,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1835,7 +1836,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1870,7 +1871,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1905,7 +1906,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1940,7 +1941,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1975,7 +1976,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2010,7 +2011,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2045,7 +2046,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2080,7 +2081,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2115,7 +2116,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C44" t="inlineStr">
@@ -2154,7 +2155,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C45" t="inlineStr">
@@ -2213,7 +2214,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2248,7 +2249,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2283,7 +2284,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2318,7 +2319,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2353,7 +2354,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2388,7 +2389,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2423,7 +2424,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2458,7 +2459,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2493,7 +2494,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2528,7 +2529,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2567,7 +2568,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2626,7 +2627,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2661,7 +2662,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2696,7 +2697,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2731,7 +2732,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2766,7 +2767,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2801,7 +2802,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2836,7 +2837,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2871,7 +2872,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2906,7 +2907,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2941,7 +2942,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -2980,7 +2981,7 @@
           <t>FAR SAC W18-02FungicideNoneCvRelay</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3039,7 +3040,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3074,7 +3075,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3109,7 +3110,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3144,7 +3145,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3179,7 +3180,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3214,7 +3215,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3249,7 +3250,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3284,7 +3285,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3319,7 +3320,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3354,7 +3355,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3393,7 +3394,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAdagio</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3452,7 +3453,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3487,7 +3488,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3522,7 +3523,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3557,7 +3558,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3592,7 +3593,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3627,7 +3628,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3662,7 +3663,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3697,7 +3698,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3732,7 +3733,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3767,7 +3768,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -3806,7 +3807,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -3865,7 +3866,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3900,7 +3901,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3935,7 +3936,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3970,7 +3971,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -4005,7 +4006,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -4040,7 +4041,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -4075,7 +4076,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4110,7 +4111,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4145,7 +4146,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4180,7 +4181,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4219,7 +4220,7 @@
           <t>FAR SAC W18-02FungicideNoneCvCoolah</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4278,7 +4279,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4313,7 +4314,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4348,7 +4349,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4383,7 +4384,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4418,7 +4419,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4453,7 +4454,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4488,7 +4489,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4523,7 +4524,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4558,7 +4559,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4593,7 +4594,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4632,7 +4633,7 @@
           <t>FAR SAC W18-02FungicideNoneCvAsano</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C111" t="inlineStr">
@@ -4691,7 +4692,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4726,7 +4727,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -4761,7 +4762,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4796,7 +4797,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4831,7 +4832,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4866,7 +4867,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4901,7 +4902,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4936,7 +4937,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4971,7 +4972,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -5006,7 +5007,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C121" t="inlineStr">
@@ -5045,7 +5046,7 @@
           <t>FAR SAC W18-02FungicideNoneCvHereford</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C122" t="inlineStr">
@@ -5104,7 +5105,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -5139,7 +5140,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -5174,7 +5175,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -5209,7 +5210,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5244,7 +5245,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -5279,7 +5280,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5314,7 +5315,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5349,7 +5350,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5384,7 +5385,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5419,7 +5420,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C132" t="inlineStr">
@@ -5458,7 +5459,7 @@
           <t>FAR SAC W18-02FungicideNoneCvBennett</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C133" t="inlineStr">
@@ -5517,7 +5518,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -5552,7 +5553,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5587,7 +5588,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5622,7 +5623,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5657,7 +5658,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5692,7 +5693,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5727,7 +5728,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5762,7 +5763,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -5797,7 +5798,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5832,7 +5833,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C143" t="inlineStr">
@@ -5871,7 +5872,7 @@
           <t>FAR SAC W18-02FungicideNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C144" t="inlineStr">
@@ -5930,7 +5931,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5965,7 +5966,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -6000,7 +6001,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -6035,7 +6036,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -6070,7 +6071,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -6105,7 +6106,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -6140,7 +6141,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -6175,7 +6176,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -6210,7 +6211,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -6245,7 +6246,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C154" t="inlineStr">
@@ -6284,7 +6285,7 @@
           <t>FAR SAC W18-02FungicideNoneCvGenius</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C155" t="inlineStr">
@@ -6343,7 +6344,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6378,7 +6379,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6413,7 +6414,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6448,7 +6449,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6483,7 +6484,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6518,7 +6519,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6553,7 +6554,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6588,7 +6589,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -6623,7 +6624,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6658,7 +6659,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C165" t="inlineStr">
@@ -6697,7 +6698,7 @@
           <t>FAR SAC W18-02FungicideNoneCvEinstein</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C166" t="inlineStr">
@@ -6756,7 +6757,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6791,7 +6792,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6826,7 +6827,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6861,7 +6862,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6896,7 +6897,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6931,7 +6932,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6966,7 +6967,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -7001,7 +7002,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -7036,7 +7037,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -7071,7 +7072,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C176" t="inlineStr">
@@ -7110,7 +7111,7 @@
           <t>FAR SAC W18-02FungicideNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C177" t="inlineStr">
@@ -7169,7 +7170,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -7204,7 +7205,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -7239,7 +7240,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -7274,7 +7275,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -7309,7 +7310,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -7344,7 +7345,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7379,7 +7380,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7414,7 +7415,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -7449,7 +7450,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7484,7 +7485,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C187" t="inlineStr">
@@ -7523,7 +7524,7 @@
           <t>FAR SAC W18-02FungicideNoneCvWedgetail</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C188" t="inlineStr">
@@ -7582,7 +7583,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7621,7 +7622,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7656,7 +7657,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7691,7 +7692,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7726,7 +7727,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7761,7 +7762,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7796,7 +7797,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7831,7 +7832,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C196" t="inlineStr"/>
@@ -7866,7 +7867,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7901,7 +7902,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7936,7 +7937,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C199" t="inlineStr">
@@ -7975,7 +7976,7 @@
           <t>FAR SAC W18-02FungicidePlusCvManning</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C200" t="inlineStr">
@@ -8034,7 +8035,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -8073,7 +8074,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -8108,7 +8109,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -8143,7 +8144,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -8178,7 +8179,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -8213,7 +8214,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -8248,7 +8249,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -8283,7 +8284,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -8318,7 +8319,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -8353,7 +8354,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -8388,7 +8389,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C211" t="inlineStr">
@@ -8427,7 +8428,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRevenue</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C212" t="inlineStr">
@@ -8486,7 +8487,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8525,7 +8526,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8560,7 +8561,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8595,7 +8596,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8630,7 +8631,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8665,7 +8666,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -8700,7 +8701,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8735,7 +8736,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8770,7 +8771,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8805,7 +8806,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8840,7 +8841,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C223" t="inlineStr">
@@ -8879,7 +8880,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBeaufort</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C224" t="inlineStr">
@@ -8938,7 +8939,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8977,7 +8978,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -9012,7 +9013,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -9047,7 +9048,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -9082,7 +9083,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -9117,7 +9118,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -9152,7 +9153,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -9187,7 +9188,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -9222,7 +9223,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -9257,7 +9258,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -9292,7 +9293,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C235" t="inlineStr">
@@ -9331,7 +9332,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCalabro</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C236" t="inlineStr">
@@ -9390,7 +9391,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -9429,7 +9430,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -9464,7 +9465,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -9499,7 +9500,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -9534,7 +9535,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9569,7 +9570,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9604,7 +9605,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9639,7 +9640,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9674,7 +9675,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9709,7 +9710,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9744,7 +9745,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C247" t="inlineStr">
@@ -9783,7 +9784,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAccroc</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C248" t="inlineStr">
@@ -9842,7 +9843,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9881,7 +9882,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9916,7 +9917,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -9951,7 +9952,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B252" s="3" t="n">
+      <c r="B252" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -9986,7 +9987,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B253" s="3" t="n">
+      <c r="B253" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -10021,7 +10022,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B254" s="3" t="n">
+      <c r="B254" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -10056,7 +10057,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B255" s="3" t="n">
+      <c r="B255" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C255" t="inlineStr"/>
@@ -10091,7 +10092,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B256" s="3" t="n">
+      <c r="B256" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C256" t="inlineStr"/>
@@ -10126,7 +10127,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B257" s="3" t="n">
+      <c r="B257" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C257" t="inlineStr"/>
@@ -10161,7 +10162,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B258" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C258" t="inlineStr"/>
@@ -10196,7 +10197,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B259" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C259" t="inlineStr">
@@ -10235,7 +10236,7 @@
           <t>FAR SAC W18-02FungicidePlusCvRelay</t>
         </is>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B260" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C260" t="inlineStr">
@@ -10294,7 +10295,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B261" s="3" t="n">
+      <c r="B261" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C261" t="inlineStr"/>
@@ -10333,7 +10334,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B262" s="3" t="n">
+      <c r="B262" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C262" t="inlineStr"/>
@@ -10368,7 +10369,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B263" s="3" t="n">
+      <c r="B263" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C263" t="inlineStr"/>
@@ -10403,7 +10404,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B264" s="3" t="n">
+      <c r="B264" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C264" t="inlineStr"/>
@@ -10438,7 +10439,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B265" s="3" t="n">
+      <c r="B265" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C265" t="inlineStr"/>
@@ -10473,7 +10474,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B266" s="3" t="n">
+      <c r="B266" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C266" t="inlineStr"/>
@@ -10508,7 +10509,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B267" s="3" t="n">
+      <c r="B267" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C267" t="inlineStr"/>
@@ -10543,7 +10544,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B268" s="3" t="n">
+      <c r="B268" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C268" t="inlineStr"/>
@@ -10578,7 +10579,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B269" s="3" t="n">
+      <c r="B269" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C269" t="inlineStr"/>
@@ -10613,7 +10614,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B270" s="3" t="n">
+      <c r="B270" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C270" t="inlineStr"/>
@@ -10648,7 +10649,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B271" s="3" t="n">
+      <c r="B271" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C271" t="inlineStr">
@@ -10687,7 +10688,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAdagio</t>
         </is>
       </c>
-      <c r="B272" s="3" t="n">
+      <c r="B272" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C272" t="inlineStr">
@@ -10746,7 +10747,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B273" s="3" t="n">
+      <c r="B273" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C273" t="inlineStr"/>
@@ -10785,7 +10786,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B274" s="3" t="n">
+      <c r="B274" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C274" t="inlineStr"/>
@@ -10820,7 +10821,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B275" s="3" t="n">
+      <c r="B275" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -10855,7 +10856,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B276" s="3" t="n">
+      <c r="B276" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C276" t="inlineStr"/>
@@ -10890,7 +10891,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B277" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C277" t="inlineStr"/>
@@ -10925,7 +10926,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B278" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -10960,7 +10961,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B279" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -10995,7 +10996,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B280" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -11030,7 +11031,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B281" s="3" t="n">
+      <c r="B281" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -11065,7 +11066,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B282" s="3" t="n">
+      <c r="B282" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -11100,7 +11101,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B283" s="3" t="n">
+      <c r="B283" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C283" t="inlineStr">
@@ -11139,7 +11140,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAnapurna</t>
         </is>
       </c>
-      <c r="B284" s="3" t="n">
+      <c r="B284" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C284" t="inlineStr">
@@ -11198,7 +11199,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B285" s="3" t="n">
+      <c r="B285" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C285" t="inlineStr"/>
@@ -11237,7 +11238,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B286" s="3" t="n">
+      <c r="B286" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -11272,7 +11273,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B287" s="3" t="n">
+      <c r="B287" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C287" t="inlineStr"/>
@@ -11307,7 +11308,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B288" s="3" t="n">
+      <c r="B288" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C288" t="inlineStr"/>
@@ -11342,7 +11343,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B289" s="3" t="n">
+      <c r="B289" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C289" t="inlineStr"/>
@@ -11377,7 +11378,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B290" s="3" t="n">
+      <c r="B290" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C290" t="inlineStr"/>
@@ -11412,7 +11413,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B291" s="3" t="n">
+      <c r="B291" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C291" t="inlineStr"/>
@@ -11447,7 +11448,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B292" s="3" t="n">
+      <c r="B292" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C292" t="inlineStr"/>
@@ -11482,7 +11483,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B293" s="3" t="n">
+      <c r="B293" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C293" t="inlineStr"/>
@@ -11517,7 +11518,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B294" s="3" t="n">
+      <c r="B294" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C294" t="inlineStr"/>
@@ -11552,7 +11553,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B295" s="3" t="n">
+      <c r="B295" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C295" t="inlineStr">
@@ -11591,7 +11592,7 @@
           <t>FAR SAC W18-02FungicidePlusCvCoolah</t>
         </is>
       </c>
-      <c r="B296" s="3" t="n">
+      <c r="B296" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C296" t="inlineStr">
@@ -11650,7 +11651,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B297" s="3" t="n">
+      <c r="B297" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C297" t="inlineStr"/>
@@ -11689,7 +11690,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B298" s="3" t="n">
+      <c r="B298" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -11724,7 +11725,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B299" s="3" t="n">
+      <c r="B299" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C299" t="inlineStr"/>
@@ -11759,7 +11760,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B300" s="3" t="n">
+      <c r="B300" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C300" t="inlineStr"/>
@@ -11794,7 +11795,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B301" s="3" t="n">
+      <c r="B301" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C301" t="inlineStr"/>
@@ -11829,7 +11830,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B302" s="3" t="n">
+      <c r="B302" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C302" t="inlineStr"/>
@@ -11864,7 +11865,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B303" s="3" t="n">
+      <c r="B303" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C303" t="inlineStr"/>
@@ -11899,7 +11900,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B304" s="3" t="n">
+      <c r="B304" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C304" t="inlineStr"/>
@@ -11934,7 +11935,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B305" s="3" t="n">
+      <c r="B305" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C305" t="inlineStr"/>
@@ -11969,7 +11970,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B306" s="3" t="n">
+      <c r="B306" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C306" t="inlineStr"/>
@@ -12004,7 +12005,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B307" s="3" t="n">
+      <c r="B307" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C307" t="inlineStr">
@@ -12043,7 +12044,7 @@
           <t>FAR SAC W18-02FungicidePlusCvAsano</t>
         </is>
       </c>
-      <c r="B308" s="3" t="n">
+      <c r="B308" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C308" t="inlineStr">
@@ -12102,7 +12103,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B309" s="3" t="n">
+      <c r="B309" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C309" t="inlineStr"/>
@@ -12141,7 +12142,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B310" s="3" t="n">
+      <c r="B310" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C310" t="inlineStr"/>
@@ -12176,7 +12177,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B311" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C311" t="inlineStr"/>
@@ -12211,7 +12212,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B312" s="3" t="n">
+      <c r="B312" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C312" t="inlineStr"/>
@@ -12246,7 +12247,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B313" s="3" t="n">
+      <c r="B313" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C313" t="inlineStr"/>
@@ -12281,7 +12282,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B314" s="3" t="n">
+      <c r="B314" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C314" t="inlineStr"/>
@@ -12316,7 +12317,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B315" s="3" t="n">
+      <c r="B315" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C315" t="inlineStr"/>
@@ -12351,7 +12352,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B316" s="3" t="n">
+      <c r="B316" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C316" t="inlineStr"/>
@@ -12386,7 +12387,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B317" s="3" t="n">
+      <c r="B317" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C317" t="inlineStr"/>
@@ -12421,7 +12422,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B318" s="3" t="n">
+      <c r="B318" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C318" t="inlineStr"/>
@@ -12456,7 +12457,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B319" s="3" t="n">
+      <c r="B319" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C319" t="inlineStr">
@@ -12495,7 +12496,7 @@
           <t>FAR SAC W18-02FungicidePlusCvHereford</t>
         </is>
       </c>
-      <c r="B320" s="3" t="n">
+      <c r="B320" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C320" t="inlineStr">
@@ -12554,7 +12555,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B321" s="3" t="n">
+      <c r="B321" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C321" t="inlineStr"/>
@@ -12593,7 +12594,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B322" s="3" t="n">
+      <c r="B322" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C322" t="inlineStr"/>
@@ -12628,7 +12629,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B323" s="3" t="n">
+      <c r="B323" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C323" t="inlineStr"/>
@@ -12663,7 +12664,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B324" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C324" t="inlineStr"/>
@@ -12698,7 +12699,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B325" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C325" t="inlineStr"/>
@@ -12733,7 +12734,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B326" s="3" t="n">
+      <c r="B326" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C326" t="inlineStr"/>
@@ -12768,7 +12769,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B327" s="3" t="n">
+      <c r="B327" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C327" t="inlineStr"/>
@@ -12803,7 +12804,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B328" s="3" t="n">
+      <c r="B328" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C328" t="inlineStr"/>
@@ -12838,7 +12839,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B329" s="3" t="n">
+      <c r="B329" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -12873,7 +12874,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B330" s="3" t="n">
+      <c r="B330" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -12908,7 +12909,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B331" s="3" t="n">
+      <c r="B331" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C331" t="inlineStr">
@@ -12947,7 +12948,7 @@
           <t>FAR SAC W18-02FungicidePlusCvBennett</t>
         </is>
       </c>
-      <c r="B332" s="3" t="n">
+      <c r="B332" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C332" t="inlineStr">
@@ -13006,7 +13007,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B333" s="3" t="n">
+      <c r="B333" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C333" t="inlineStr"/>
@@ -13045,7 +13046,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B334" s="3" t="n">
+      <c r="B334" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C334" t="inlineStr"/>
@@ -13080,7 +13081,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B335" s="3" t="n">
+      <c r="B335" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C335" t="inlineStr"/>
@@ -13115,7 +13116,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B336" s="3" t="n">
+      <c r="B336" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C336" t="inlineStr"/>
@@ -13150,7 +13151,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B337" s="3" t="n">
+      <c r="B337" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C337" t="inlineStr"/>
@@ -13185,7 +13186,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B338" s="3" t="n">
+      <c r="B338" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C338" t="inlineStr"/>
@@ -13220,7 +13221,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B339" s="3" t="n">
+      <c r="B339" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C339" t="inlineStr"/>
@@ -13255,7 +13256,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B340" s="3" t="n">
+      <c r="B340" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C340" t="inlineStr"/>
@@ -13290,7 +13291,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B341" s="3" t="n">
+      <c r="B341" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C341" t="inlineStr"/>
@@ -13325,7 +13326,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B342" s="3" t="n">
+      <c r="B342" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C342" t="inlineStr"/>
@@ -13360,7 +13361,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B343" s="3" t="n">
+      <c r="B343" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C343" t="inlineStr">
@@ -13399,7 +13400,7 @@
           <t>FAR SAC W18-02FungicidePlusCvTrojan</t>
         </is>
       </c>
-      <c r="B344" s="3" t="n">
+      <c r="B344" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C344" t="inlineStr">
@@ -13458,7 +13459,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B345" s="3" t="n">
+      <c r="B345" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C345" t="inlineStr"/>
@@ -13497,7 +13498,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B346" s="3" t="n">
+      <c r="B346" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C346" t="inlineStr"/>
@@ -13532,7 +13533,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B347" s="3" t="n">
+      <c r="B347" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C347" t="inlineStr"/>
@@ -13567,7 +13568,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B348" s="3" t="n">
+      <c r="B348" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C348" t="inlineStr"/>
@@ -13602,7 +13603,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B349" s="3" t="n">
+      <c r="B349" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C349" t="inlineStr"/>
@@ -13637,7 +13638,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B350" s="3" t="n">
+      <c r="B350" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C350" t="inlineStr"/>
@@ -13672,7 +13673,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B351" s="3" t="n">
+      <c r="B351" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C351" t="inlineStr"/>
@@ -13707,7 +13708,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B352" s="3" t="n">
+      <c r="B352" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C352" t="inlineStr"/>
@@ -13742,7 +13743,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B353" s="3" t="n">
+      <c r="B353" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C353" t="inlineStr"/>
@@ -13777,7 +13778,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B354" s="3" t="n">
+      <c r="B354" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C354" t="inlineStr"/>
@@ -13812,7 +13813,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B355" s="3" t="n">
+      <c r="B355" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C355" t="inlineStr">
@@ -13851,7 +13852,7 @@
           <t>FAR SAC W18-02FungicidePlusCvGenius</t>
         </is>
       </c>
-      <c r="B356" s="3" t="n">
+      <c r="B356" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C356" t="inlineStr">
@@ -13910,7 +13911,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B357" s="3" t="n">
+      <c r="B357" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C357" t="inlineStr"/>
@@ -13949,7 +13950,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B358" s="3" t="n">
+      <c r="B358" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C358" t="inlineStr"/>
@@ -13984,7 +13985,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B359" s="3" t="n">
+      <c r="B359" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C359" t="inlineStr"/>
@@ -14019,7 +14020,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B360" s="3" t="n">
+      <c r="B360" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C360" t="inlineStr"/>
@@ -14054,7 +14055,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B361" s="3" t="n">
+      <c r="B361" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C361" t="inlineStr"/>
@@ -14089,7 +14090,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B362" s="3" t="n">
+      <c r="B362" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C362" t="inlineStr"/>
@@ -14124,7 +14125,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B363" s="3" t="n">
+      <c r="B363" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C363" t="inlineStr"/>
@@ -14159,7 +14160,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B364" s="3" t="n">
+      <c r="B364" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C364" t="inlineStr"/>
@@ -14194,7 +14195,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B365" s="3" t="n">
+      <c r="B365" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C365" t="inlineStr"/>
@@ -14229,7 +14230,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B366" s="3" t="n">
+      <c r="B366" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C366" t="inlineStr"/>
@@ -14264,7 +14265,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B367" s="3" t="n">
+      <c r="B367" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C367" t="inlineStr">
@@ -14303,7 +14304,7 @@
           <t>FAR SAC W18-02FungicidePlusCvEinstein</t>
         </is>
       </c>
-      <c r="B368" s="3" t="n">
+      <c r="B368" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C368" t="inlineStr">
@@ -14362,7 +14363,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B369" s="3" t="n">
+      <c r="B369" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C369" t="inlineStr"/>
@@ -14401,7 +14402,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B370" s="3" t="n">
+      <c r="B370" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C370" t="inlineStr"/>
@@ -14436,7 +14437,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B371" s="3" t="n">
+      <c r="B371" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C371" t="inlineStr"/>
@@ -14471,7 +14472,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B372" s="3" t="n">
+      <c r="B372" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C372" t="inlineStr"/>
@@ -14506,7 +14507,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B373" s="3" t="n">
+      <c r="B373" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C373" t="inlineStr"/>
@@ -14541,7 +14542,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B374" s="3" t="n">
+      <c r="B374" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C374" t="inlineStr"/>
@@ -14576,7 +14577,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B375" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C375" t="inlineStr"/>
@@ -14611,7 +14612,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B376" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -14646,7 +14647,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B377" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C377" t="inlineStr"/>
@@ -14681,7 +14682,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B378" s="3" t="n">
+      <c r="B378" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C378" t="inlineStr"/>
@@ -14716,7 +14717,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B379" s="3" t="n">
+      <c r="B379" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C379" t="inlineStr">
@@ -14755,7 +14756,7 @@
           <t>FAR SAC W18-02FungicidePlusCvKittyhawk</t>
         </is>
       </c>
-      <c r="B380" s="3" t="n">
+      <c r="B380" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C380" t="inlineStr">
@@ -14814,7 +14815,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B381" s="3" t="n">
+      <c r="B381" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C381" t="inlineStr"/>
@@ -14853,7 +14854,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B382" s="3" t="n">
+      <c r="B382" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C382" t="inlineStr"/>
@@ -14888,7 +14889,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B383" s="3" t="n">
+      <c r="B383" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -14923,7 +14924,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B384" s="3" t="n">
+      <c r="B384" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -14958,7 +14959,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B385" s="3" t="n">
+      <c r="B385" s="4" t="n">
         <v>43313</v>
       </c>
       <c r="C385" t="inlineStr"/>
@@ -14993,7 +14994,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B386" s="3" t="n">
+      <c r="B386" s="4" t="n">
         <v>43321</v>
       </c>
       <c r="C386" t="inlineStr"/>
@@ -15028,7 +15029,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B387" s="3" t="n">
+      <c r="B387" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C387" t="inlineStr"/>
@@ -15063,7 +15064,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B388" s="3" t="n">
+      <c r="B388" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C388" t="inlineStr"/>
@@ -15098,7 +15099,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B389" s="3" t="n">
+      <c r="B389" s="4" t="n">
         <v>43411</v>
       </c>
       <c r="C389" t="inlineStr"/>
@@ -15133,7 +15134,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B390" s="3" t="n">
+      <c r="B390" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C390" t="inlineStr"/>
@@ -15168,7 +15169,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B391" s="3" t="n">
+      <c r="B391" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C391" t="inlineStr">
@@ -15207,7 +15208,7 @@
           <t>FAR SAC W18-02FungicidePlusCvWedgetail</t>
         </is>
       </c>
-      <c r="B392" s="3" t="n">
+      <c r="B392" s="4" t="n">
         <v>43474</v>
       </c>
       <c r="C392" t="inlineStr">
